--- a/Deliverables/sprint-02/planning-documents.xlsx
+++ b/Deliverables/sprint-02/planning-documents.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="185">
   <si>
     <t>Project Name</t>
   </si>
@@ -81,6 +81,12 @@
       </rPr>
       <t>https://www.shirtinator.ch/s/-GuNOvW5Q2qjHFDZrYILpA</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">black link again since it didnt work for some </t>
+  </si>
+  <si>
+    <t>https://www.shirtinator.ch/t-shirts/gestalten/t-shirt-bedrucken#/load/share/f86b8d3a-f5b9-436a-a31c-50d9ad820ba4</t>
   </si>
   <si>
     <t>Additional materials</t>
@@ -542,6 +548,33 @@
   </si>
   <si>
     <t>Python V</t>
+  </si>
+  <si>
+    <t>Running Ollama via Docker</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>7.0.0</t>
+  </si>
+  <si>
+    <t>Apache License, Version 2.0.</t>
+  </si>
+  <si>
+    <t>Running Ollama directly</t>
+  </si>
+  <si>
+    <t>Ollama</t>
+  </si>
+  <si>
+    <t>MIT License</t>
+  </si>
+  <si>
+    <t>Python Version for running Qwen2.5-Coder</t>
+  </si>
+  <si>
+    <t>Running Qwen2.5-Coder directly</t>
   </si>
   <si>
     <t>Value</t>
@@ -683,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -944,6 +977,9 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1188,7 +1224,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B20" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B21" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="2">
     <tableColumn name="Project Name" id="1"/>
     <tableColumn name="AI Driven Testing" id="2"/>
@@ -1438,32 +1474,36 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-    </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
@@ -1472,6 +1512,10 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1481,13 +1525,14 @@
     <hyperlink r:id="rId4" ref="B10"/>
     <hyperlink r:id="rId5" ref="B12"/>
     <hyperlink r:id="rId6" ref="B13"/>
+    <hyperlink r:id="rId7" location="/load/share/f86b8d3a-f5b9-436a-a31c-50d9ad820ba4" ref="B14"/>
   </hyperlinks>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1512,25 +1557,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
@@ -1544,7 +1589,7 @@
     </row>
     <row r="3">
       <c r="A3" s="59" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -1564,7 +1609,7 @@
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -1590,7 +1635,7 @@
     </row>
     <row r="7">
       <c r="A7" s="65" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B7" s="83"/>
       <c r="C7" s="67"/>
@@ -1605,11 +1650,11 @@
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
       <c r="E8" s="68" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="68" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -1711,7 +1756,7 @@
     </row>
     <row r="14">
       <c r="A14" s="73" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B14" s="74"/>
       <c r="C14" s="75"/>
@@ -1895,7 +1940,7 @@
       <c r="A33" s="69"/>
       <c r="B33" s="39"/>
       <c r="C33" s="81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D33" s="64"/>
       <c r="E33" s="39"/>
@@ -1938,16 +1983,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
@@ -1955,7 +2000,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1965,7 +2010,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2099,10 +2144,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
@@ -2206,37 +2251,37 @@
     <col customWidth="1" min="2" max="2" width="25.13"/>
     <col customWidth="1" min="3" max="3" width="37.63"/>
     <col customWidth="1" min="4" max="4" width="9.5"/>
-    <col customWidth="1" min="5" max="5" width="12.63"/>
+    <col customWidth="1" min="5" max="5" width="19.0"/>
     <col customWidth="1" min="6" max="6" width="37.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2">
         <v>3.11</v>
@@ -2246,34 +2291,60 @@
     </row>
     <row r="3">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>167</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.11</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7">
@@ -2415,294 +2486,294 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="87" t="str">
+      <c r="A1" s="88" t="str">
         <f>'Project Team'!A1</f>
         <v>Last Name</v>
       </c>
-      <c r="B1" s="87" t="str">
+      <c r="B1" s="88" t="str">
         <f>'Project Team'!B1</f>
         <v>First Name</v>
       </c>
-      <c r="C1" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="C1" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2">
-      <c r="A2" s="93" t="str">
+      <c r="A2" s="94" t="str">
         <f>'Project Team'!A2</f>
         <v>Brüggemann</v>
       </c>
-      <c r="B2" s="93" t="str">
+      <c r="B2" s="94" t="str">
         <f>'Project Team'!B2</f>
         <v>Jonas</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="95">
         <v>5.0</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96">
+      <c r="D2" s="96"/>
+      <c r="E2" s="97">
         <f>average(C2:C8)</f>
         <v>5</v>
       </c>
-      <c r="F2" s="97" t="str">
+      <c r="F2" s="98" t="str">
         <f>if(stdev(C2:C7) &gt; 0,"NOK", "OK")</f>
         <v>OK</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3">
-      <c r="A3" s="99" t="str">
+      <c r="A3" s="100" t="str">
         <f>'Project Team'!A3</f>
         <v>Clicqué</v>
       </c>
-      <c r="B3" s="99" t="str">
+      <c r="B3" s="100" t="str">
         <f>'Project Team'!B3</f>
         <v>Lennard</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="95">
         <v>5.0</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
     </row>
     <row r="4">
-      <c r="A4" s="93" t="str">
+      <c r="A4" s="94" t="str">
         <f>'Project Team'!A4</f>
         <v>Hasse</v>
       </c>
-      <c r="B4" s="93" t="str">
+      <c r="B4" s="94" t="str">
         <f>'Project Team'!B4</f>
         <v>Lisabeth</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="95">
         <v>5.0</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="D4" s="96"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
     </row>
     <row r="5">
-      <c r="A5" s="99" t="str">
+      <c r="A5" s="100" t="str">
         <f>'Project Team'!A5</f>
         <v>Heidkamp</v>
       </c>
-      <c r="B5" s="99" t="str">
+      <c r="B5" s="100" t="str">
         <f>'Project Team'!B5</f>
         <v>Tessa</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="95">
         <v>5.0</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
     </row>
     <row r="6">
-      <c r="A6" s="99" t="str">
+      <c r="A6" s="100" t="str">
         <f>'Project Team'!A9</f>
         <v>Parameswaran</v>
       </c>
-      <c r="B6" s="99" t="str">
+      <c r="B6" s="100" t="str">
         <f>'Project Team'!B9</f>
         <v>Biranavan</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="95">
         <v>5.0</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104">
+      <c r="D6" s="104"/>
+      <c r="E6" s="105">
         <v>0.0</v>
       </c>
-      <c r="F6" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
+      <c r="F6" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7">
-      <c r="A7" s="93" t="str">
+      <c r="A7" s="94" t="str">
         <f>'Project Team'!A10</f>
         <v>Takale</v>
       </c>
-      <c r="B7" s="93" t="str">
+      <c r="B7" s="94" t="str">
         <f>'Project Team'!B10</f>
         <v>Aditi Vishwas</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="95">
         <v>5.0</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="104">
+      <c r="D7" s="103"/>
+      <c r="E7" s="105">
         <v>1.0</v>
       </c>
-      <c r="F7" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
+      <c r="F7" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
     </row>
     <row r="8">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104">
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="105">
         <v>2.0</v>
       </c>
-      <c r="F8" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
+      <c r="F8" s="106" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9">
-      <c r="C9" s="106"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="104">
+      <c r="C9" s="107"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="105">
         <v>3.0</v>
       </c>
-      <c r="F9" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
+      <c r="F9" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
     </row>
     <row r="10">
-      <c r="C10" s="106"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104">
+      <c r="C10" s="107"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105">
         <v>5.0</v>
       </c>
-      <c r="F10" s="105" t="s">
-        <v>167</v>
-      </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
+      <c r="F10" s="106" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
     </row>
     <row r="11">
-      <c r="A11" s="99"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="104">
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="105">
         <v>8.0</v>
       </c>
-      <c r="F11" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+      <c r="F11" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
     </row>
     <row r="12">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104">
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105">
         <v>13.0</v>
       </c>
-      <c r="F12" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
+      <c r="F12" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
     </row>
     <row r="13">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
     </row>
     <row r="14">
-      <c r="A14" s="107" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
+      <c r="A14" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
     </row>
     <row r="15">
-      <c r="A15" s="109"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16">
-      <c r="A16" s="110" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
+      <c r="A16" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
     </row>
     <row r="17">
-      <c r="A17" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
+      <c r="A17" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
     </row>
     <row r="18">
-      <c r="A18" s="110" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
+      <c r="A18" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
     </row>
     <row r="19">
-      <c r="A19" s="109"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
     </row>
     <row r="20">
-      <c r="A20" s="111"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2734,156 +2805,156 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2974,7 +3045,7 @@
       <c r="A1" s="21"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
@@ -2983,28 +3054,28 @@
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -3015,19 +3086,19 @@
         <v>45763.0</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3" s="27"/>
     </row>
@@ -3040,19 +3111,19 @@
         <v>45770</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4" s="27"/>
     </row>
@@ -3064,16 +3135,20 @@
         <f t="shared" si="1"/>
         <v>45777</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E5" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" s="27"/>
     </row>
@@ -3085,19 +3160,23 @@
         <f t="shared" si="1"/>
         <v>45784</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="E6" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -3108,16 +3187,20 @@
         <f t="shared" si="1"/>
         <v>45791</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E7" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" s="27"/>
     </row>
@@ -3129,16 +3212,20 @@
         <f t="shared" si="1"/>
         <v>45798</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="E8" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="27"/>
     </row>
@@ -3150,19 +3237,23 @@
         <f t="shared" si="1"/>
         <v>45805</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E9" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -3173,16 +3264,20 @@
         <f t="shared" si="1"/>
         <v>45812</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="E10" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="27"/>
     </row>
@@ -3194,16 +3289,20 @@
         <f t="shared" si="1"/>
         <v>45819</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E11" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" s="27"/>
     </row>
@@ -3215,16 +3314,20 @@
         <f t="shared" si="1"/>
         <v>45826</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H12" s="27"/>
     </row>
@@ -3236,16 +3339,20 @@
         <f t="shared" si="1"/>
         <v>45833</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H13" s="27"/>
     </row>
@@ -3257,16 +3364,20 @@
         <f t="shared" si="1"/>
         <v>45840</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="E14" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H14" s="27"/>
     </row>
@@ -3278,13 +3389,17 @@
         <f t="shared" si="1"/>
         <v>45847</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E15" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H15" s="27"/>
     </row>
@@ -3299,14 +3414,14 @@
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -3331,7 +3446,7 @@
     </row>
     <row r="19">
       <c r="A19" s="29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="32"/>
@@ -3376,6 +3491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3388,78 +3504,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36"/>
       <c r="B2" s="37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="36"/>
       <c r="B4" s="37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="36"/>
       <c r="B6" s="36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="36"/>
       <c r="B8" s="37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
@@ -3468,38 +3584,38 @@
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="39"/>
       <c r="B14" s="37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="39"/>
       <c r="B16" s="37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -3508,105 +3624,108 @@
     </row>
     <row r="19">
       <c r="A19" s="41" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="39"/>
       <c r="B20" s="37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B21" s="41"/>
     </row>
     <row r="23">
       <c r="A23" s="42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -3632,10 +3751,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
@@ -3644,10 +3763,10 @@
     </row>
     <row r="3">
       <c r="A3" s="46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3678,10 +3797,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="47" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
@@ -3787,10 +3906,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
@@ -3798,7 +3917,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -3807,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -3816,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -3825,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -3834,7 +3953,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
@@ -3950,10 +4069,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
@@ -4066,7 +4185,7 @@
     <row r="18">
       <c r="A18" s="49"/>
       <c r="B18" s="51" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
@@ -4105,25 +4224,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
@@ -4137,7 +4256,7 @@
     </row>
     <row r="3">
       <c r="A3" s="59" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
@@ -4157,7 +4276,7 @@
     </row>
     <row r="5">
       <c r="A5" s="62" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" s="63"/>
       <c r="C5" s="39"/>
@@ -4183,7 +4302,7 @@
     </row>
     <row r="7">
       <c r="A7" s="65" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -4198,11 +4317,11 @@
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
       <c r="E8" s="68" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="68" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -4304,7 +4423,7 @@
     </row>
     <row r="14">
       <c r="A14" s="73" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B14" s="74"/>
       <c r="C14" s="75"/>
@@ -4497,7 +4616,7 @@
       <c r="A33" s="69"/>
       <c r="B33" s="78"/>
       <c r="C33" s="81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D33" s="64"/>
       <c r="E33" s="39"/>
